--- a/regionseng/12/standard of living/incomes.xlsx
+++ b/regionseng/12/standard of living/incomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -304,7 +304,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -356,6 +356,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -370,16 +382,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -697,35 +713,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.140625" style="28"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="11">
         <v>2011</v>
@@ -760,8 +780,14 @@
       <c r="L2" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="12">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -795,11 +821,17 @@
       <c r="K3" s="5">
         <v>74.688204780911562</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="5">
         <v>88.77397008755851</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="16">
+        <v>93.687552721970746</v>
+      </c>
+      <c r="N3" s="25">
+        <v>107.79347567864129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -833,11 +865,17 @@
       <c r="K4" s="5">
         <v>65.142489078183274</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="5">
         <v>77.226843442746173</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="16">
+        <v>83.424695956140994</v>
+      </c>
+      <c r="N4" s="25">
+        <v>96.915068457215014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -871,11 +909,17 @@
       <c r="K5" s="6">
         <v>27.953633058017729</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="6">
         <v>31.271725634080255</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="17">
+        <v>34.557970203343714</v>
+      </c>
+      <c r="N5" s="26">
+        <v>41.704658727731065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -909,11 +953,17 @@
       <c r="K6" s="6">
         <v>6.9416580722872414</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="6">
         <v>7.6703471871948254</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="17">
+        <v>10.890895435167948</v>
+      </c>
+      <c r="N6" s="26">
+        <v>13.74295763697179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
@@ -947,11 +997,17 @@
       <c r="K7" s="6">
         <v>5.3595191125488277</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="6">
         <v>8.3406274709325174</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="17">
+        <v>7.5368666973643617</v>
+      </c>
+      <c r="N7" s="26">
+        <v>8.3475317850081119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -985,11 +1041,17 @@
       <c r="K8" s="6">
         <v>0.44547284416198729</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="6">
         <v>0.21631547373453777</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="17">
+        <v>0.99510645637512207</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0.62216284573872871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
@@ -1023,11 +1085,17 @@
       <c r="K9" s="6">
         <v>16.928221846858978</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="6">
         <v>20.030362716768902</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="17">
+        <v>20.151561755163826</v>
+      </c>
+      <c r="N9" s="26">
+        <v>22.497654948788959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
@@ -1061,11 +1129,17 @@
       <c r="K10" s="6">
         <v>2.042525094210307</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="6">
         <v>4.1344339959716789</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="17">
+        <v>4.2562794962946571</v>
+      </c>
+      <c r="N10" s="26">
+        <v>3.4364198303248088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
@@ -1099,11 +1173,17 @@
       <c r="K11" s="6">
         <v>5.471459050098221</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="6">
         <v>5.5630309640634579</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="17">
+        <v>5.0360159124313544</v>
+      </c>
+      <c r="N11" s="26">
+        <v>6.5636826826515202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
@@ -1137,11 +1217,17 @@
       <c r="K12" s="5">
         <v>9.5457157027282609</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="5">
         <v>11.547126644812327</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="16">
+        <v>10.262856765829779</v>
+      </c>
+      <c r="N12" s="25">
+        <v>10.878407221426297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
@@ -1175,11 +1261,17 @@
       <c r="K13" s="5">
         <v>3.6034940671132407</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="5">
         <v>5.9319973878428156</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="16">
+        <v>9.9296298203875235</v>
+      </c>
+      <c r="N13" s="25">
+        <v>12.364585190180458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
@@ -1213,11 +1305,17 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="6">
         <v>9.9854756673177072E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="17">
+        <v>0.80305345865885425</v>
+      </c>
+      <c r="N14" s="26">
+        <v>0.75256679712931307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -1251,11 +1349,17 @@
       <c r="K15" s="6">
         <v>3.6034940671132407</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="6">
         <v>5.8321426311696385</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="17">
+        <v>9.1265763617286684</v>
+      </c>
+      <c r="N15" s="26">
+        <v>11.612018393051146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1289,11 +1393,17 @@
       <c r="K16" s="5">
         <v>68.745983145296535</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="5">
         <v>83.158840830588986</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="16">
+        <v>93.354325776528512</v>
+      </c>
+      <c r="N16" s="25">
+        <v>109.27965364739546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
@@ -1327,11 +1437,17 @@
       <c r="K17" s="7">
         <v>78.291698848024794</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="7">
         <v>94.705967475401323</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="18">
+        <v>103.61718254235828</v>
+      </c>
+      <c r="N17" s="27">
+        <v>120.15806086882174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1341,7 +1457,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1351,23 +1467,25 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="11">
         <v>2011</v>
@@ -1402,8 +1520,14 @@
       <c r="L21" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="M21" s="12">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
@@ -1437,11 +1561,17 @@
       <c r="K22" s="8">
         <v>974.32971122176764</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="8">
         <v>1133.6230399087729</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="M22" s="19">
+        <v>1263.0293093404714</v>
+      </c>
+      <c r="N22" s="29">
+        <v>1448.5190277326481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>9</v>
       </c>
@@ -1475,11 +1605,17 @@
       <c r="K23" s="8">
         <v>849.80302790775988</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="8">
         <v>986.16890671643148</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="M23" s="16">
+        <v>1124.6727345746292</v>
+      </c>
+      <c r="N23" s="25">
+        <v>1302.335970247449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>0</v>
       </c>
@@ -1513,11 +1649,17 @@
       <c r="K24" s="9">
         <v>364.66340709234089</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="9">
         <v>399.33269449968464</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="17">
+        <v>465.88610727902955</v>
+      </c>
+      <c r="N24" s="26">
+        <v>560.42345171531406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>1</v>
       </c>
@@ -1551,11 +1693,17 @@
       <c r="K25" s="9">
         <v>90.555981694989839</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="9">
         <v>97.948557295874807</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="17">
+        <v>146.82334781868678</v>
+      </c>
+      <c r="N25" s="26">
+        <v>184.67662823884439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1589,11 +1737,17 @@
       <c r="K26" s="9">
         <v>69.916511242105017</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="9">
         <v>106.50788129695523</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="17">
+        <v>101.6067050829361</v>
+      </c>
+      <c r="N26" s="26">
+        <v>112.17338107953047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>14</v>
       </c>
@@ -1627,11 +1781,17 @@
       <c r="K27" s="9">
         <v>5.8113249459226219</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="9">
         <v>2.7622985056586997</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="17">
+        <v>13.415321286548771</v>
+      </c>
+      <c r="N27" s="26">
+        <v>8.3605683435571034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>3</v>
       </c>
@@ -1665,11 +1825,17 @@
       <c r="K28" s="9">
         <v>220.83365843281717</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="9">
         <v>255.7830932993412</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="17">
+        <v>271.66909996345385</v>
+      </c>
+      <c r="N28" s="26">
+        <v>302.3214630339782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>4</v>
       </c>
@@ -1703,11 +1869,17 @@
       <c r="K29" s="9">
         <v>26.645343679672429</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="9">
         <v>52.795764684094564</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="17">
+        <v>57.380149191412983</v>
+      </c>
+      <c r="N29" s="26">
+        <v>46.178300496990026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>5</v>
       </c>
@@ -1741,11 +1913,17 @@
       <c r="K30" s="9">
         <v>71.376800819912035</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="9">
         <v>71.038617134822431</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="17">
+        <v>67.892003952560927</v>
+      </c>
+      <c r="N30" s="26">
+        <v>88.202177339234666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
@@ -1779,11 +1957,17 @@
       <c r="K31" s="8">
         <v>124.52668331400754</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="8">
         <v>147.45413319234086</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="16">
+        <v>138.35657476584265</v>
+      </c>
+      <c r="N31" s="25">
+        <v>146.18305748519913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>11</v>
       </c>
@@ -1817,11 +2001,17 @@
       <c r="K32" s="8">
         <v>47.008645395867362</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="8">
         <v>75.750232921933005</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="16">
+        <v>133.86424481882645</v>
+      </c>
+      <c r="N32" s="25">
+        <v>166.15418331432966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -1855,11 +2045,17 @@
       <c r="K33" s="9">
         <v>0</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="9">
         <v>1.2751221185393646</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="17">
+        <v>10.826198633487303</v>
+      </c>
+      <c r="N33" s="26">
+        <v>10.112924909588241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -1893,11 +2089,17 @@
       <c r="K34" s="9">
         <v>47.008645395867362</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="9">
         <v>74.475110803393648</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="17">
+        <v>123.03804618533913</v>
+      </c>
+      <c r="N34" s="26">
+        <v>156.0412584047414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>12</v>
       </c>
@@ -1931,11 +2133,17 @@
       <c r="K35" s="8">
         <v>896.81167330362746</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="8">
         <v>1061.9191396383644</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="16">
+        <v>1258.5369793934553</v>
+      </c>
+      <c r="N35" s="25">
+        <v>1468.4901535617787</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>13</v>
       </c>
@@ -1969,11 +2177,17 @@
       <c r="K36" s="10">
         <v>1021.3383566176348</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="10">
         <v>1209.3732728307059</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="18">
+        <v>1396.8935541592978</v>
+      </c>
+      <c r="N36" s="27">
+        <v>1614.6732110469777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1983,7 +2197,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1993,23 +2207,25 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:14" ht="30" customHeight="1">
+      <c r="A39" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="11">
         <v>2011</v>
@@ -2044,8 +2260,14 @@
       <c r="L40" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="12">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>8</v>
       </c>
@@ -2079,11 +2301,17 @@
       <c r="K41" s="8">
         <v>292.7525625830753</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="8">
         <v>349.39239973396133</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="16">
+        <v>374.0186306517827</v>
+      </c>
+      <c r="N41" s="25">
+        <v>436.44263819625326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>9</v>
       </c>
@@ -2117,11 +2345,17 @@
       <c r="K42" s="8">
         <v>255.33657779858876</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="8">
         <v>303.94576391848852</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+      <c r="M42" s="16">
+        <v>333.04734340381447</v>
+      </c>
+      <c r="N42" s="25">
+        <v>392.3972939191392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
@@ -2155,11 +2389,17 @@
       <c r="K43" s="9">
         <v>109.56880989771969</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="9">
         <v>123.07778115968932</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+      <c r="M43" s="17">
+        <v>137.96202716402681</v>
+      </c>
+      <c r="N43" s="26">
+        <v>168.85707753286513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>1</v>
       </c>
@@ -2193,11 +2433,17 @@
       <c r="K44" s="9">
         <v>27.20895749467735</v>
       </c>
-      <c r="L44" s="21">
+      <c r="L44" s="9">
         <v>30.188590280274411</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+      <c r="M44" s="17">
+        <v>43.47853774472658</v>
+      </c>
+      <c r="N44" s="26">
+        <v>55.643559593354766</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>2</v>
       </c>
@@ -2231,11 +2477,17 @@
       <c r="K45" s="9">
         <v>21.00750659376726</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="9">
         <v>32.826647771659417</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="M45" s="17">
+        <v>30.088613478022605</v>
+      </c>
+      <c r="N45" s="26">
+        <v>33.798138261515433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>14</v>
       </c>
@@ -2269,11 +2521,17 @@
       <c r="K46" s="9">
         <v>1.7461032444432663</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="9">
         <v>0.85136422752248941</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="17">
+        <v>3.9726553138887666</v>
+      </c>
+      <c r="N46" s="26">
+        <v>2.5190614930297048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>3</v>
       </c>
@@ -2307,11 +2565,17 @@
       <c r="K47" s="9">
         <v>66.352917976538905</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="9">
         <v>78.834555785337969</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="17">
+        <v>80.448889037889089</v>
+      </c>
+      <c r="N47" s="26">
+        <v>91.090261421304348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>4</v>
       </c>
@@ -2345,11 +2609,17 @@
       <c r="K48" s="9">
         <v>8.0060092115525983</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L48" s="9">
         <v>16.272110101299447</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="17">
+        <v>16.991881873567852</v>
+      </c>
+      <c r="N48" s="26">
+        <v>13.913644840325508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>5</v>
       </c>
@@ -2383,11 +2653,17 @@
       <c r="K49" s="9">
         <v>21.446273379889689</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L49" s="9">
         <v>21.894714592705448</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="17">
+        <v>20.104738791692736</v>
+      </c>
+      <c r="N49" s="26">
+        <v>26.575550776744354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>10</v>
       </c>
@@ -2421,11 +2697,17 @@
       <c r="K50" s="8">
         <v>37.415984784486525</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="8">
         <v>45.446635815472767</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="16">
+        <v>40.971287247968291</v>
+      </c>
+      <c r="N50" s="25">
+        <v>44.045344277113955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>11</v>
       </c>
@@ -2459,11 +2741,17 @@
       <c r="K51" s="8">
         <v>14.124480906922587</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="8">
         <v>23.346875221529167</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="16">
+        <v>39.640981543426591</v>
+      </c>
+      <c r="N51" s="25">
+        <v>50.062697641300339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>6</v>
       </c>
@@ -2497,11 +2785,17 @@
       <c r="K52" s="9">
         <v>0</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L52" s="9">
         <v>0.39300363636414271</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="17">
+        <v>3.2059430118652856</v>
+      </c>
+      <c r="N52" s="26">
+        <v>3.0470511901593964</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>7</v>
       </c>
@@ -2535,11 +2829,17 @@
       <c r="K53" s="9">
         <v>14.124480906922587</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L53" s="9">
         <v>22.953871585165025</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="17">
+        <v>36.435038531561304</v>
+      </c>
+      <c r="N53" s="26">
+        <v>47.015646451140945</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>12</v>
       </c>
@@ -2573,11 +2873,17 @@
       <c r="K54" s="8">
         <v>269.46105870551145</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="8">
         <v>327.29263914001757</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="16">
+        <v>372.68832494724103</v>
+      </c>
+      <c r="N54" s="25">
+        <v>442.45999156043956</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="15" t="s">
         <v>13</v>
       </c>
@@ -2611,49 +2917,59 @@
       <c r="K55" s="10">
         <v>306.8770434899979</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L55" s="10">
         <v>372.73927495549049</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="18" t="s">
+      <c r="M55" s="18">
+        <v>413.65961219520926</v>
+      </c>
+      <c r="N55" s="27">
+        <v>486.50533583755362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
-      <c r="A57" s="19" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
